--- a/data/Routes.xlsx
+++ b/data/Routes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krzysiek\Documents\GitHub\flight_db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9804ECC5-77D0-41D0-B654-58A1CD4960A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B833F3A5-AB02-4527-9D0F-C796E3222F3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9375821-D0B8-4D3C-88D1-20063BEF8971}"/>
   </bookViews>
@@ -34,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>RouteId</t>
-  </si>
-  <si>
-    <t>ArrivalAiportId</t>
   </si>
   <si>
     <t>DepartureAirportId</t>
@@ -51,22 +48,7 @@
     <t>DepartureDateTime</t>
   </si>
   <si>
-    <t>2020-11-01 14:40:00</t>
-  </si>
-  <si>
-    <t>2020-11-01 12:00:00</t>
-  </si>
-  <si>
-    <t>2020-11-02 16:30:00</t>
-  </si>
-  <si>
-    <t>2020-11-02 17:55:00</t>
-  </si>
-  <si>
-    <t>2020-11-03 10:00:00</t>
-  </si>
-  <si>
-    <t>2020-11-03 12:20:00</t>
+    <t>ArrivalAirportId</t>
   </si>
 </sst>
 </file>
@@ -431,7 +413,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,65 +433,26 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>49</v>
-      </c>
-      <c r="C2">
-        <v>58</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
